--- a/IT技术部-绩效考核表-董延坤.xlsx
+++ b/IT技术部-绩效考核表-董延坤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123456\Desktop\nsi\杂项\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nsi项目库\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA1C5B-8D88-493E-8E20-55F073079A40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F5BDD-D5E1-41C8-A382-8B1FC11ABE8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18年7月" sheetId="19" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="18年10月" sheetId="21" r:id="rId4"/>
     <sheet name="18年11月" sheetId="22" r:id="rId5"/>
     <sheet name="18年12月" sheetId="23" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="19年1月" sheetId="24" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
   <si>
     <t>内容描述</t>
   </si>
@@ -354,6 +355,58 @@
   </si>
   <si>
     <t>音频转文字页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台商品管理页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台订单管理页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书后台权限管理页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>年会抽奖初始页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城商品添加,删除,编辑,查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城订单添加,删除,编辑,查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书权限管理，精确到最后一级,高度配置化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>年会抽奖功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询项目库增加字段,效果优化,增加说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务回款页面美化，优化显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务回款,修改字段信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理页面美化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才库修改字段显示</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1104,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1260,9 +1313,7 @@
       <c r="E20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="25">
-        <v>94</v>
-      </c>
+      <c r="F20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1286,7 +1337,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1495,9 +1546,7 @@
       <c r="E20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="25">
-        <v>94.4</v>
-      </c>
+      <c r="F20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1521,7 +1570,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,9 +1779,7 @@
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
-        <v>94</v>
-      </c>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1756,7 +1803,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1967,9 +2014,7 @@
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
-        <v>94</v>
-      </c>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1993,7 +2038,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2204,9 +2249,7 @@
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
-        <v>94</v>
-      </c>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2229,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E153C5B-0D3C-49F6-99A8-095BEB26716F}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2445,9 +2488,246 @@
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B7C922-8E60-425E-9967-9DF26855A62E}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="46"/>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="46"/>
+      <c r="C7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+      <c r="C11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2466,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/IT技术部-绩效考核表-董延坤.xlsx
+++ b/IT技术部-绩效考核表-董延坤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nsi项目库\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F5BDD-D5E1-41C8-A382-8B1FC11ABE8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172381B-4869-46FE-A695-ABD3A28030B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18年7月" sheetId="19" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="18年11月" sheetId="22" r:id="rId5"/>
     <sheet name="18年12月" sheetId="23" r:id="rId6"/>
     <sheet name="19年1月" sheetId="24" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId8"/>
+    <sheet name="19年2月" sheetId="26" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
   <si>
     <t>内容描述</t>
   </si>
@@ -407,6 +408,54 @@
   </si>
   <si>
     <t>人才库修改字段显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书后台在线课堂录播课增删改查，权限页增加在线课堂录播课</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学升学指导活动页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学升学指导微信分享</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书录播课主页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书录播课子课程页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网vis活动页面重构</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台商品管理修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网vis活动页面美化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台商品管理页调整</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书后台审核提示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书后台机构库检索</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台商品首页增加分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2511,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B7C922-8E60-425E-9967-9DF26855A62E}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2702,6 +2751,241 @@
       <c r="B17" s="38"/>
       <c r="C17" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86601779-C036-4CBB-AC6F-564CED2DD89F}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="46"/>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="46"/>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
+      <c r="C10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
@@ -2746,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/IT技术部-绩效考核表-董延坤.xlsx
+++ b/IT技术部-绩效考核表-董延坤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nsi项目库\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172381B-4869-46FE-A695-ABD3A28030B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983286F-9E1E-4ABC-9809-E08F555BD76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18年7月" sheetId="19" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="18年12月" sheetId="23" r:id="rId6"/>
     <sheet name="19年1月" sheetId="24" r:id="rId7"/>
     <sheet name="19年2月" sheetId="26" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="19年3月" sheetId="27" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
   <si>
     <t>内容描述</t>
   </si>
@@ -456,6 +457,54 @@
   </si>
   <si>
     <t>官网后台商品首页增加分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台首页,订单和营业额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单购物车管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台发票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台财务对账</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书学校库vuessr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台发票查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城订单和营业额图标展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台订单美化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台财务管理显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台首页美化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台商品管理增加筛选,订单购物车管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台财务对账及购物车内容查看</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,9 +822,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,10 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1158,211 +1201,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="17.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="73" style="13" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="17.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="73" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="27">
         <v>0.8</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="33"/>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="35"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="33"/>
+      <c r="D13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="27">
         <v>0.2</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1381,6 +1424,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0EFE67-6640-4156-B5EA-89B0BAA32599}">
   <dimension ref="B2:F20"/>
@@ -1391,211 +1447,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="17.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="17.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="27">
         <v>0.8</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="33"/>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="33"/>
+      <c r="D13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="27">
         <v>0.2</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1651,7 +1707,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1660,48 +1716,48 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1710,44 +1766,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1756,36 +1812,36 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1794,41 +1850,41 @@
       <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1884,7 +1940,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1893,44 +1949,44 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1939,44 +1995,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1985,40 +2041,40 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2027,43 +2083,43 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2119,7 +2175,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2128,44 +2184,44 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2174,44 +2230,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2220,40 +2276,40 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2262,43 +2318,43 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2354,7 +2410,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2363,44 +2419,44 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2409,44 +2465,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2455,44 +2511,44 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2501,43 +2557,43 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2593,7 +2649,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2602,48 +2658,48 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2652,44 +2708,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2698,40 +2754,40 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2740,43 +2796,43 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2799,7 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86601779-C036-4CBB-AC6F-564CED2DD89F}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2832,7 +2888,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2841,48 +2897,48 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>0.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2891,44 +2947,44 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2937,36 +2993,36 @@
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2975,43 +3031,278 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0.2</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="41">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95599EE2-EE48-4E01-B520-C239B4335CEA}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="44"/>
+      <c r="C7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="44"/>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3028,17 +3319,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/IT技术部-绩效考核表-董延坤.xlsx
+++ b/IT技术部-绩效考核表-董延坤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nsi项目库\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983286F-9E1E-4ABC-9809-E08F555BD76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CABFB-20EC-4F73-B10B-FFA0DD05DA8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18年7月" sheetId="19" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="19年1月" sheetId="24" r:id="rId7"/>
     <sheet name="19年2月" sheetId="26" r:id="rId8"/>
     <sheet name="19年3月" sheetId="27" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="19年4月" sheetId="28" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="134">
   <si>
     <t>内容描述</t>
   </si>
@@ -505,6 +506,58 @@
   </si>
   <si>
     <t>官网后台财务对账及购物车内容查看</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台首页增加年收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台官网增加验证,菜单栏优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程详情页导航栏优化,图片压缩优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程控制,小程序中不显示课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网增加加入我们,联系我们页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城推荐书籍,推荐课程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书小程序增加文章阅读量 ,增加广告位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网后台增加直播课;线下课,官网商城增加直播课,线下课</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书学校库增加学校展示图片,登录计算验证调整</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城增加banner动态获取;官网后台增加banner图片配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城关键接口添加unionId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四库全书微信小程序检索学校bug;教育资讯缩略图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善 已上传</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1425,6 +1478,241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3DB518-3D8E-4C48-94A0-FCB863283EB8}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="41">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="44"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="44"/>
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="44"/>
+      <c r="C10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3090,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95599EE2-EE48-4E01-B520-C239B4335CEA}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3306,14 +3594,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E15"/>
     <mergeCell ref="F4:F15"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
